--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/fa_IR.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/fa_IR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5995">
   <si>
     <t>translation_group</t>
   </si>
@@ -17487,7 +17487,7 @@
     <t>Two text columns with icon and title</t>
   </si>
   <si>
-    <t>دو ستون متن با نماد و عنوان</t>
+    <t>دو ستون متنی با نماد و عنوان</t>
   </si>
   <si>
     <t>Image with Title and Text</t>
@@ -17698,346 +17698,274 @@
     <t>زبان مدیریت</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>اضافه کردن صفحه فرعی</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>دسته حذف شد</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>محتوا حذف شد</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>جستجوی دسته ها</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>محتوا ایجاد کنید</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>کارت</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>هر</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>شناسه توصیف</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>شناسه صعودی</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>حد</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>آیا مطمئن هستید که می خواهید حذف کنید؟</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>بازگشت به</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>فیلدهای سفارشی ذخیره می شوند</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>زمینه های موجود</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>از فیلدهای موجود خود در زیر انتخاب کنید</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فیلدهای جدید اضافه کنید</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>فیلد سفارشی جدید را از لیست زیر اضافه کنید</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>زمینه های شما</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>لیست فیلدهای سفارشی اضافه شده شما</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>موجودی</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>سیستم</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>وبلاگ</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>تغییر مسیر مرورگر</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>ادغام</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>ابزار صادرات واردات</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>به روز رسانی مستقل</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>پیش نمایش بسته</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>نسخه ی نمایشی</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>استفاده کنید</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>جاری</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>بیان</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>اولین کلاس</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>کلیک کنید و جمع آوری کنید</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>پس زمینه ویدیو</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>می توانید ماژول Multi-language را برای استفاده از چندین زبان فعال کنید</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>حالت چند زبانه</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>حالت چند زبانه را فعال کنید تا چندین زبان برای محتوای خود داشته باشید.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>ترجمه ها وارد می شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترجمه در پایگاه داده یافت نشد. آیا می خواهید ترجمه ها را وارد کنید؟ </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>سبد خرید شما خالی است.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>ویرایشگر کد</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>وبلاگ</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>عناوین</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>عناوین 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>عناوین 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>عناوین 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>عناوین 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>عناوین 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>عناوین 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>عناوین 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>عناوین 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>بلوک متنی</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>بلوک متن 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>بلوک متن 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>بلوک متن 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>بلوک متن 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>بلوک متن 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>بلوک متن 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>بلوک متن 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>بلوک متن 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>بلوک متن 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>بلوک متنی 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>بلوک متن 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>بلوک متنی 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>بلوک متن 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>بلوک متنی 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>بلوک متنی 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>ویژگی های 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>ویژگی های 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>ویژگی های 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>ویژگی های 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>شبکه ها</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>منو - پوست - 1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>منو - پوست-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>منو - پوست - 3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>منو - پوست-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>منو - پوست - 5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>پاورقی</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>پاورقی 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>پاورقی 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>پاورقی 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>پاورقی 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>جامبوترون</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>جامبوترون 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>قیمت گذاری 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>طرح بندی های پیش فرض</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>بدون محتوا در اینجا</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>فیلدهای سفارشی ذخیره می شوند</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>زمینه های موجود</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>از فیلدهای موجود خود در زیر انتخاب کنید</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> فیلدهای جدید اضافه کنید</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>فیلد سفارشی جدید را از لیست زیر اضافه کنید</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>زمینه های شما</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>لیست فیلدهای سفارشی اضافه شده شما</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>واردات جدید</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
@@ -18086,510 +18014,6 @@
   </si>
   <si>
     <t>بارگذاری مجدد سبک ها</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>پیوندها به</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>پیش نمایش بسته</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>نسخه ی نمایشی</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>استفاده کنید</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>جاری</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>دوباره سفارش دهید</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>سیستم</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>تغییر مسیر مرورگر</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>ادغام</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>به روز رسانی مستقل</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>برای نصب این بسته به کلید مجوز نیاز دارید</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>این بسته پریمیوم است و برای نصب آن باید کلید مجوز داشته باشید</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>شما به کلید مجوز نیاز دارید</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>مجوز فعال شد</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>در حال بارگیری مجدد صفحه</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>مجوز فعال نشد</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>آدرس اینترنتی</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>به روز رسانی سیستم</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>به روز رسانی سیستم را بررسی کنید</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>بازگشت به لیست</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>دسته باید یک نام داشته باشد</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>آیا دسته بندی پنهان است؟</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>اگر این را روی YES تنظیم کنید، این دسته از وب سایت پنهان می شود</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>ذکر کردن</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>سبد خرید شما خالی است.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>نتایج یافت شد</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>اگر درصد را از قسمت انتخاب انتخاب کنید، به طور خودکار از قیمت و قیمت پیشنهادی محصول محاسبه می شود.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>custom.multillanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>values.multillanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>تحریر المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>یویووی</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>به پرداخت ادامه دهید</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>در حال نمایش</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>از</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>نتایج)</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>عنوان صفحه - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>عنوان صفحه - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>شرایط استفاده</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>تحویل و مرجوعی</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>حدود 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>حدود 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>حدود 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>خانه 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>خانه 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>برای تغییر الگو باید روی دکمه اعمال قالب کلیک کنید</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>جستجو بر اساس معیارها</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>تاریخ از</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>دستورات را از تاریخ تنظیم کنید</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>تاریخ به</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>دستورات را به تاریخ تنظیم کنید</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>مبلغ سفارش از</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>نمایش سفارش با حداقل مقدار</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>مبلغ سفارش به</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>نمایش سفارش با حداکثر مقدار</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>جستجو بر اساس محصولات ...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>جستجو بر اساس محصولات</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>وضعیت پرداخت</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>جستجوی رایگان از طریق تلفن، نام، ایمیل و غیره...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>این معیار را ارسال کنید</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>بازنشانی فیلتر</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>همه را صادر کنید</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>مرتب سازی را انتخاب کنید</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>تاریخ سفارش</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[جدید &gt; قدیمی]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[قدیمی &gt; جدید]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[بالا &gt; پایین]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[کم &gt; زیاد]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>سفارش تکمیل شد</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>ترجمه هایی از ماژول multilnaguage در پایگاه داده شما یافت شده است.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>هشدار! تغییر زبان پیش‌فرض می‌تواند ترجمه‌ها را در سایت شما خراب کند.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>آیا مطمئن هستید که می خواهید ادامه دهید؟</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>هشدار! تغییر زبان پیش فرض ممکن است سایت شما را خراب کند.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>جزئیات حمل و نقل</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>سفارش هنوز تکمیل نشده است</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>سفارش تکمیل شده است</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>به روز شده در</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مشاهده سریع </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>مقادیر زبان را جایگزین کنید</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>ترجمه ها وارد می شوند</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ترجمه در پایگاه داده یافت نشد. آیا می خواهید ترجمه ها را وارد کنید؟ </t>
   </si>
 </sst>
 </file>
@@ -18925,7 +18349,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -71015,7 +70439,7 @@
         <v>5889</v>
       </c>
       <c r="D3064" t="s">
-        <v>5890</v>
+        <v>4260</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71029,10 +70453,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3065" t="s">
         <v>5891</v>
-      </c>
-      <c r="D3065" t="s">
-        <v>5892</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71046,10 +70470,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3066" t="s">
         <v>5893</v>
-      </c>
-      <c r="D3066" t="s">
-        <v>5894</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71063,10 +70487,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3067" t="s">
         <v>5895</v>
-      </c>
-      <c r="D3067" t="s">
-        <v>5896</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71080,10 +70504,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3068" t="s">
         <v>5897</v>
-      </c>
-      <c r="D3068" t="s">
-        <v>5898</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71097,10 +70521,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
+        <v>5898</v>
+      </c>
+      <c r="D3069" t="s">
         <v>5899</v>
-      </c>
-      <c r="D3069" t="s">
-        <v>5900</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71114,10 +70538,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D3070" t="s">
         <v>5901</v>
-      </c>
-      <c r="D3070" t="s">
-        <v>5902</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71131,10 +70555,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D3071" t="s">
         <v>5903</v>
-      </c>
-      <c r="D3071" t="s">
-        <v>5904</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71148,10 +70572,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D3072" t="s">
         <v>5905</v>
-      </c>
-      <c r="D3072" t="s">
-        <v>5906</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71165,10 +70589,10 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
+        <v>5906</v>
+      </c>
+      <c r="D3073" t="s">
         <v>5907</v>
-      </c>
-      <c r="D3073" t="s">
-        <v>5908</v>
       </c>
       <c r="E3073" t="s">
         <v>8</v>
@@ -71182,10 +70606,10 @@
         <v>5</v>
       </c>
       <c r="C3074" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D3074" t="s">
         <v>5909</v>
-      </c>
-      <c r="D3074" t="s">
-        <v>5910</v>
       </c>
       <c r="E3074" t="s">
         <v>8</v>
@@ -71199,10 +70623,10 @@
         <v>5</v>
       </c>
       <c r="C3075" t="s">
+        <v>5910</v>
+      </c>
+      <c r="D3075" t="s">
         <v>5911</v>
-      </c>
-      <c r="D3075" t="s">
-        <v>5912</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71216,10 +70640,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
       <c r="D3076" t="s">
-        <v>5914</v>
+        <v>3512</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71233,10 +70657,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="D3077" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71250,10 +70674,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="D3078" t="s">
-        <v>5918</v>
+        <v>2156</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71267,10 +70691,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
-        <v>5919</v>
+        <v>5916</v>
       </c>
       <c r="D3079" t="s">
-        <v>5920</v>
+        <v>5917</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71284,10 +70708,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
-        <v>5921</v>
+        <v>5918</v>
       </c>
       <c r="D3080" t="s">
-        <v>5922</v>
+        <v>5919</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71301,10 +70725,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
-        <v>5923</v>
+        <v>5920</v>
       </c>
       <c r="D3081" t="s">
-        <v>5924</v>
+        <v>5921</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71318,10 +70742,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
-        <v>5925</v>
+        <v>5922</v>
       </c>
       <c r="D3082" t="s">
-        <v>5926</v>
+        <v>5923</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71335,10 +70759,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
-        <v>5927</v>
+        <v>5924</v>
       </c>
       <c r="D3083" t="s">
-        <v>5928</v>
+        <v>5925</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71352,10 +70776,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
-        <v>5929</v>
+        <v>5926</v>
       </c>
       <c r="D3084" t="s">
-        <v>5930</v>
+        <v>5927</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71369,10 +70793,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
-        <v>5931</v>
+        <v>5928</v>
       </c>
       <c r="D3085" t="s">
-        <v>5932</v>
+        <v>5929</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71386,10 +70810,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5933</v>
+        <v>5930</v>
       </c>
       <c r="D3086" t="s">
-        <v>5934</v>
+        <v>5931</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71403,10 +70827,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5935</v>
+        <v>5932</v>
       </c>
       <c r="D3087" t="s">
-        <v>5936</v>
+        <v>5933</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71420,10 +70844,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5937</v>
+        <v>5934</v>
       </c>
       <c r="D3088" t="s">
-        <v>5938</v>
+        <v>5935</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71437,10 +70861,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5939</v>
+        <v>5936</v>
       </c>
       <c r="D3089" t="s">
-        <v>5940</v>
+        <v>5937</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71454,10 +70878,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5941</v>
+        <v>5938</v>
       </c>
       <c r="D3090" t="s">
-        <v>5942</v>
+        <v>5939</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71471,10 +70895,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5943</v>
+        <v>5940</v>
       </c>
       <c r="D3091" t="s">
-        <v>5944</v>
+        <v>5941</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71488,10 +70912,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5945</v>
+        <v>5942</v>
       </c>
       <c r="D3092" t="s">
-        <v>1929</v>
+        <v>5943</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71505,10 +70929,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5946</v>
+        <v>5944</v>
       </c>
       <c r="D3093" t="s">
-        <v>5947</v>
+        <v>5945</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71522,10 +70946,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5948</v>
+        <v>5946</v>
       </c>
       <c r="D3094" t="s">
-        <v>5949</v>
+        <v>5947</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71539,10 +70963,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="D3095" t="s">
-        <v>5951</v>
+        <v>5949</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71556,10 +70980,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5952</v>
+        <v>5950</v>
       </c>
       <c r="D3096" t="s">
-        <v>5953</v>
+        <v>5951</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71573,10 +70997,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5954</v>
+        <v>5952</v>
       </c>
       <c r="D3097" t="s">
-        <v>5955</v>
+        <v>5953</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71590,10 +71014,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5956</v>
+        <v>5954</v>
       </c>
       <c r="D3098" t="s">
-        <v>2231</v>
+        <v>5955</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71607,10 +71031,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
+        <v>5956</v>
+      </c>
+      <c r="D3099" t="s">
         <v>5957</v>
-      </c>
-      <c r="D3099" t="s">
-        <v>5958</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71624,10 +71048,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D3100" t="s">
         <v>5959</v>
-      </c>
-      <c r="D3100" t="s">
-        <v>5960</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71641,10 +71065,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="D3101" t="s">
-        <v>5962</v>
+        <v>1525</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71658,10 +71082,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="D3102" t="s">
-        <v>5964</v>
+        <v>5962</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71675,10 +71099,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
       <c r="D3103" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71692,10 +71116,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="D3104" t="s">
-        <v>5968</v>
+        <v>5966</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71709,10 +71133,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="D3105" t="s">
-        <v>5970</v>
+        <v>5968</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71726,10 +71150,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="D3106" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71743,10 +71167,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="D3107" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71760,10 +71184,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="D3108" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71776,11 +71200,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5977</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1300</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71793,11 +71217,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5976</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71811,10 +71235,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3111" t="s">
         <v>5978</v>
-      </c>
-      <c r="D3111" t="s">
-        <v>5979</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71828,10 +71252,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3112" t="s">
         <v>5980</v>
-      </c>
-      <c r="D3112" t="s">
-        <v>5981</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71845,10 +71269,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3113" t="s">
         <v>5982</v>
-      </c>
-      <c r="D3113" t="s">
-        <v>2693</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71953,1672 +71377,6 @@
         <v>5994</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5995</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5996</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6026</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6028</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6029</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6030</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6031</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6032</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6033</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6034</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6035</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6036</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6037</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6038</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6039</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6040</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6041</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6042</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6043</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6044</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6045</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6046</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6047</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6048</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6049</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6050</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>6051</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>6052</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6053</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6054</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6055</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6056</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6057</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6058</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6059</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6060</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6061</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6062</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6063</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6064</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6065</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6066</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6067</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6068</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6069</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5884</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6070</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6071</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6072</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6074</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6074</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6075</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6076</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6075</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6083</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6086</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6087</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>6088</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6089</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6090</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6091</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6092</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6093</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6094</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6095</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6096</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6097</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6098</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6099</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6100</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6101</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6113</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6114</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6115</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6116</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1830</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6168</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6169</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6170</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6171</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4352</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>2953</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6177</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6178</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6179</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6180</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6181</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6182</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6183</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6184</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6185</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6186</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
